--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H2">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I2">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J2">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q2">
-        <v>1859.958024416212</v>
+        <v>1.361009777068889</v>
       </c>
       <c r="R2">
-        <v>1859.958024416212</v>
+        <v>12.24908799362</v>
       </c>
       <c r="S2">
-        <v>0.1491149245059937</v>
+        <v>7.872869997371259E-05</v>
       </c>
       <c r="T2">
-        <v>0.1491149245059937</v>
+        <v>7.87286999737126E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H3">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I3">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J3">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N3">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q3">
-        <v>1800.076304270841</v>
+        <v>3386.109876115948</v>
       </c>
       <c r="R3">
-        <v>1800.076304270841</v>
+        <v>30474.98888504353</v>
       </c>
       <c r="S3">
-        <v>0.1443141397239991</v>
+        <v>0.1958722361928074</v>
       </c>
       <c r="T3">
-        <v>0.1443141397239991</v>
+        <v>0.1958722361928075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H4">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I4">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J4">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N4">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q4">
-        <v>3352.010238506037</v>
+        <v>2414.722298589308</v>
       </c>
       <c r="R4">
-        <v>3352.010238506037</v>
+        <v>21732.50068730377</v>
       </c>
       <c r="S4">
-        <v>0.2687344268508584</v>
+        <v>0.1396815442243871</v>
       </c>
       <c r="T4">
-        <v>0.2687344268508584</v>
+        <v>0.1396815442243872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.24785615656817</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H5">
-        <v>1.24785615656817</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I5">
-        <v>0.03840464991936122</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J5">
-        <v>0.03840464991936122</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N5">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q5">
-        <v>127.0645246902702</v>
+        <v>4556.27750456085</v>
       </c>
       <c r="R5">
-        <v>127.0645246902702</v>
+        <v>41006.49754104765</v>
       </c>
       <c r="S5">
-        <v>0.01018690570316855</v>
+        <v>0.2635615193199237</v>
       </c>
       <c r="T5">
-        <v>0.01018690570316855</v>
+        <v>0.2635615193199238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.24785615656817</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H6">
-        <v>1.24785615656817</v>
+        <v>3.963676</v>
       </c>
       <c r="I6">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J6">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q6">
-        <v>122.9736569351791</v>
+        <v>0.07424053229688889</v>
       </c>
       <c r="R6">
-        <v>122.9736569351791</v>
+        <v>0.668164790672</v>
       </c>
       <c r="S6">
-        <v>0.009858936239096429</v>
+        <v>4.294503016486884E-06</v>
       </c>
       <c r="T6">
-        <v>0.009858936239096429</v>
+        <v>4.294503016486885E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.24785615656817</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H7">
-        <v>1.24785615656817</v>
+        <v>3.963676</v>
       </c>
       <c r="I7">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J7">
-        <v>0.03840464991936122</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N7">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="O7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q7">
-        <v>228.9952687756884</v>
+        <v>184.7059469036249</v>
       </c>
       <c r="R7">
-        <v>228.9952687756884</v>
+        <v>1662.353522132624</v>
       </c>
       <c r="S7">
-        <v>0.01835880797709624</v>
+        <v>0.01068446334636429</v>
       </c>
       <c r="T7">
-        <v>0.01835880797709624</v>
+        <v>0.01068446334636429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H8">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I8">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J8">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.826259398135</v>
+        <v>99.694255</v>
       </c>
       <c r="N8">
-        <v>101.826259398135</v>
+        <v>299.082765</v>
       </c>
       <c r="O8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q8">
-        <v>489.0749508420122</v>
+        <v>131.7185752937933</v>
       </c>
       <c r="R8">
-        <v>489.0749508420122</v>
+        <v>1185.46717764414</v>
       </c>
       <c r="S8">
-        <v>0.03920968829147065</v>
+        <v>0.00761936642189532</v>
       </c>
       <c r="T8">
-        <v>0.03920968829147065</v>
+        <v>0.007619366421895321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H9">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I9">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J9">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.5479426357753</v>
+        <v>188.11053</v>
       </c>
       <c r="N9">
-        <v>98.5479426357753</v>
+        <v>564.33159</v>
       </c>
       <c r="O9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q9">
-        <v>473.3290851009696</v>
+        <v>248.53639770276</v>
       </c>
       <c r="R9">
-        <v>473.3290851009696</v>
+        <v>2236.82757932484</v>
       </c>
       <c r="S9">
-        <v>0.03794732454431349</v>
+        <v>0.01437678686587238</v>
       </c>
       <c r="T9">
-        <v>0.03794732454431349</v>
+        <v>0.01437678686587239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.80303365490189</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H10">
-        <v>4.80303365490189</v>
+        <v>16.97948</v>
       </c>
       <c r="I10">
-        <v>0.147820584204763</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J10">
-        <v>0.147820584204763</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>183.51095001644</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N10">
-        <v>183.51095001644</v>
+        <v>0.168572</v>
       </c>
       <c r="O10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q10">
-        <v>881.4092689719799</v>
+        <v>0.3180294336177777</v>
       </c>
       <c r="R10">
-        <v>881.4092689719799</v>
+        <v>2.86226490256</v>
       </c>
       <c r="S10">
-        <v>0.07066357136897884</v>
+        <v>1.839666715402034E-05</v>
       </c>
       <c r="T10">
-        <v>0.07066357136897884</v>
+        <v>1.839666715402034E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.92927833923327</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H11">
-        <v>3.92927833923327</v>
+        <v>16.97948</v>
       </c>
       <c r="I11">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J11">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.826259398135</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N11">
-        <v>101.826259398135</v>
+        <v>419.396924</v>
       </c>
       <c r="O11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q11">
-        <v>400.10371541824</v>
+        <v>791.2379647910577</v>
       </c>
       <c r="R11">
-        <v>400.10371541824</v>
+        <v>7121.141683119518</v>
       </c>
       <c r="S11">
-        <v>0.0320767643871342</v>
+        <v>0.04576979341912039</v>
       </c>
       <c r="T11">
-        <v>0.0320767643871342</v>
+        <v>0.0457697934191204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.92927833923327</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H12">
-        <v>3.92927833923327</v>
+        <v>16.97948</v>
       </c>
       <c r="I12">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J12">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.5479426357753</v>
+        <v>99.694255</v>
       </c>
       <c r="N12">
-        <v>98.5479426357753</v>
+        <v>299.082765</v>
       </c>
       <c r="O12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q12">
-        <v>387.2222963747547</v>
+        <v>564.2522029624666</v>
       </c>
       <c r="R12">
-        <v>387.2222963747547</v>
+        <v>5078.269826662199</v>
       </c>
       <c r="S12">
-        <v>0.03104404654996567</v>
+        <v>0.03263962033557817</v>
       </c>
       <c r="T12">
-        <v>0.03104404654996567</v>
+        <v>0.03263962033557818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.92927833923327</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H13">
-        <v>3.92927833923327</v>
+        <v>16.97948</v>
       </c>
       <c r="I13">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J13">
-        <v>0.1209294502893603</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>183.51095001644</v>
+        <v>188.11053</v>
       </c>
       <c r="N13">
-        <v>183.51095001644</v>
+        <v>564.33159</v>
       </c>
       <c r="O13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q13">
-        <v>721.065600911717</v>
+        <v>1064.6729939748</v>
       </c>
       <c r="R13">
-        <v>721.065600911717</v>
+        <v>9582.0569457732</v>
       </c>
       <c r="S13">
-        <v>0.05780863935226046</v>
+        <v>0.06158686155309941</v>
       </c>
       <c r="T13">
-        <v>0.05780863935226046</v>
+        <v>0.06158686155309941</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.38789378134439</v>
+        <v>4.462671</v>
       </c>
       <c r="H14">
-        <v>3.38789378134439</v>
+        <v>13.388013</v>
       </c>
       <c r="I14">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J14">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N14">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q14">
-        <v>344.9765509925023</v>
+        <v>0.250760458604</v>
       </c>
       <c r="R14">
-        <v>344.9765509925023</v>
+        <v>2.256844127436</v>
       </c>
       <c r="S14">
-        <v>0.02765715767899169</v>
+        <v>1.450543944895234E-05</v>
       </c>
       <c r="T14">
-        <v>0.02765715767899169</v>
+        <v>1.450543944895234E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.38789378134439</v>
+        <v>4.462671</v>
       </c>
       <c r="H15">
-        <v>3.38789378134439</v>
+        <v>13.388013</v>
       </c>
       <c r="I15">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J15">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N15">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q15">
-        <v>333.8699620200268</v>
+        <v>623.876830074668</v>
       </c>
       <c r="R15">
-        <v>333.8699620200268</v>
+        <v>5614.891470672012</v>
       </c>
       <c r="S15">
-        <v>0.02676672996266213</v>
+        <v>0.03608865461736746</v>
       </c>
       <c r="T15">
-        <v>0.02676672996266213</v>
+        <v>0.03608865461736746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.38789378134439</v>
+        <v>4.462671</v>
       </c>
       <c r="H16">
-        <v>3.38789378134439</v>
+        <v>13.388013</v>
       </c>
       <c r="I16">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J16">
-        <v>0.1042675263103566</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N16">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q16">
-        <v>621.7156063692983</v>
+        <v>444.902660655105</v>
       </c>
       <c r="R16">
-        <v>621.7156063692983</v>
+        <v>4004.123945895945</v>
       </c>
       <c r="S16">
-        <v>0.04984363866870282</v>
+        <v>0.02573575052756533</v>
       </c>
       <c r="T16">
-        <v>0.04984363866870282</v>
+        <v>0.02573575052756534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.858261817088589</v>
+        <v>4.462671</v>
       </c>
       <c r="H17">
-        <v>0.858261817088589</v>
+        <v>13.388013</v>
       </c>
       <c r="I17">
-        <v>0.0264142981953076</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="J17">
-        <v>0.0264142981953076</v>
+        <v>0.1103990374611822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N17">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q17">
-        <v>87.39359041837734</v>
+        <v>839.4754070256301</v>
       </c>
       <c r="R17">
-        <v>87.39359041837734</v>
+        <v>7555.278663230671</v>
       </c>
       <c r="S17">
-        <v>0.007006442331747969</v>
+        <v>0.04856012687680042</v>
       </c>
       <c r="T17">
-        <v>0.007006442331747969</v>
+        <v>0.04856012687680042</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.858261817088589</v>
+        <v>3.718923666666667</v>
       </c>
       <c r="H18">
-        <v>0.858261817088589</v>
+        <v>11.156771</v>
       </c>
       <c r="I18">
-        <v>0.0264142981953076</v>
+        <v>0.09199996889567036</v>
       </c>
       <c r="J18">
-        <v>0.0264142981953076</v>
+        <v>0.09199996889567039</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N18">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q18">
-        <v>84.57993631692254</v>
+        <v>0.2089688001124444</v>
       </c>
       <c r="R18">
-        <v>84.57993631692254</v>
+        <v>1.880719201012</v>
       </c>
       <c r="S18">
-        <v>0.006780868521255068</v>
+        <v>1.208796751140946E-05</v>
       </c>
       <c r="T18">
-        <v>0.006780868521255068</v>
+        <v>1.208796751140946E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H19">
+        <v>11.156771</v>
+      </c>
+      <c r="I19">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J19">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N19">
+        <v>419.396924</v>
+      </c>
+      <c r="O19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q19">
+        <v>519.9017154636003</v>
+      </c>
+      <c r="R19">
+        <v>4679.115439172403</v>
+      </c>
+      <c r="S19">
+        <v>0.03007413088589481</v>
+      </c>
+      <c r="T19">
+        <v>0.03007413088589482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H20">
+        <v>11.156771</v>
+      </c>
+      <c r="I20">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J20">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>99.694255</v>
+      </c>
+      <c r="N20">
+        <v>299.082765</v>
+      </c>
+      <c r="O20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q20">
+        <v>370.7553243502016</v>
+      </c>
+      <c r="R20">
+        <v>3336.797919151815</v>
+      </c>
+      <c r="S20">
+        <v>0.0214466385078335</v>
+      </c>
+      <c r="T20">
+        <v>0.02144663850783351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H21">
+        <v>11.156771</v>
+      </c>
+      <c r="I21">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J21">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>188.11053</v>
+      </c>
+      <c r="N21">
+        <v>564.33159</v>
+      </c>
+      <c r="O21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q21">
+        <v>699.56870196621</v>
+      </c>
+      <c r="R21">
+        <v>6296.118317695889</v>
+      </c>
+      <c r="S21">
+        <v>0.04046711153443064</v>
+      </c>
+      <c r="T21">
+        <v>0.04046711153443065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.039172</v>
+      </c>
+      <c r="H22">
+        <v>3.117516</v>
+      </c>
+      <c r="I22">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J22">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.168572</v>
+      </c>
+      <c r="O22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q22">
+        <v>0.05839176746133333</v>
+      </c>
+      <c r="R22">
+        <v>0.525525907152</v>
+      </c>
+      <c r="S22">
+        <v>3.377718528443324E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.377718528443326E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.039172</v>
+      </c>
+      <c r="H23">
+        <v>3.117516</v>
+      </c>
+      <c r="I23">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J23">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N23">
+        <v>419.396924</v>
+      </c>
+      <c r="O23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q23">
+        <v>145.2751801023093</v>
+      </c>
+      <c r="R23">
+        <v>1307.476620920784</v>
+      </c>
+      <c r="S23">
+        <v>0.008403559078417156</v>
+      </c>
+      <c r="T23">
+        <v>0.008403559078417158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.039172</v>
+      </c>
+      <c r="H24">
+        <v>3.117516</v>
+      </c>
+      <c r="I24">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J24">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.694255</v>
+      </c>
+      <c r="N24">
+        <v>299.082765</v>
+      </c>
+      <c r="O24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q24">
+        <v>103.59947835686</v>
+      </c>
+      <c r="R24">
+        <v>932.39530521174</v>
+      </c>
+      <c r="S24">
+        <v>0.00599279475167027</v>
+      </c>
+      <c r="T24">
+        <v>0.005992794751670272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.858261817088589</v>
-      </c>
-      <c r="H19">
-        <v>0.858261817088589</v>
-      </c>
-      <c r="I19">
-        <v>0.0264142981953076</v>
-      </c>
-      <c r="J19">
-        <v>0.0264142981953076</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="N19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="O19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="P19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="Q19">
-        <v>157.500441416763</v>
-      </c>
-      <c r="R19">
-        <v>157.500441416763</v>
-      </c>
-      <c r="S19">
-        <v>0.01262698734230456</v>
-      </c>
-      <c r="T19">
-        <v>0.01262698734230456</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.039172</v>
+      </c>
+      <c r="H25">
+        <v>3.117516</v>
+      </c>
+      <c r="I25">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J25">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>188.11053</v>
+      </c>
+      <c r="N25">
+        <v>564.33159</v>
+      </c>
+      <c r="O25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q25">
+        <v>195.47919568116</v>
+      </c>
+      <c r="R25">
+        <v>1759.31276113044</v>
+      </c>
+      <c r="S25">
+        <v>0.01130765054533898</v>
+      </c>
+      <c r="T25">
+        <v>0.01130765054533898</v>
       </c>
     </row>
   </sheetData>
